--- a/Data Files/functions.xlsx
+++ b/Data Files/functions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqmjame4/Dropbox (Darwin)/auxin-wgs/A. Manuscript/2. For submission/Final_data_files_for_GitHub/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E4666-BA74-AE4F-81B1-F75C9EEB992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B1E0D-7EBC-3048-BE98-DC5794575FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{43684F4F-6B4C-9645-80E7-C1D6CECDC99F}"/>
   </bookViews>
   <sheets>
-    <sheet name="functions" sheetId="13" r:id="rId1"/>
+    <sheet name="functions" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
-  <si>
-    <t>138 F11 outlier genes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Lennox Head outlier genes</t>
   </si>
@@ -69,18 +66,9 @@
     <t>Coffs Harbour outlier genes</t>
   </si>
   <si>
-    <t>Auxin gene set natural populations</t>
-  </si>
-  <si>
-    <t>Auxin gene set F11s</t>
-  </si>
-  <si>
     <t>Auxin gene set combined</t>
   </si>
   <si>
-    <t>45 parallel + F11 outlier genes</t>
-  </si>
-  <si>
     <t>51 parallel outlier genes</t>
   </si>
   <si>
@@ -93,13 +81,22 @@
     <t>Total number of sequenced genes according to functional category</t>
   </si>
   <si>
-    <t>Number of outlier genes corrected by total number of sequenced genes</t>
-  </si>
-  <si>
-    <t>Proportion of genes in each functional category</t>
-  </si>
-  <si>
     <t>Fold change</t>
+  </si>
+  <si>
+    <t>Auxin gene set combined (natural populations + F11s)</t>
+  </si>
+  <si>
+    <t>Proportion of sequenced genes in each functional category</t>
+  </si>
+  <si>
+    <t>Proportion of outlier genes according to functional category</t>
+  </si>
+  <si>
+    <t>45 parallel architecture genes (natural populations + F11 outlier genes)</t>
+  </si>
+  <si>
+    <t>138 F11 outlier architecture genes</t>
   </si>
 </sst>
 </file>
@@ -109,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +127,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -269,6 +273,37 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -283,8 +318,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,16 +328,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C4B979-D611-BD40-8190-72489531C4B3}">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F01A9-43E1-AA4B-8965-29B2D033111B}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -636,48 +671,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
         <v>14</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>13</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>24</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>11</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>45</v>
       </c>
       <c r="G2" s="1">
@@ -690,21 +725,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>17</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>57</v>
       </c>
       <c r="G3" s="1">
@@ -717,21 +752,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>22</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>49</v>
       </c>
       <c r="G4" s="1">
@@ -744,24 +779,24 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>21</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>6</v>
       </c>
       <c r="H5" s="4">
@@ -771,21 +806,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>25</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>12</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>56</v>
       </c>
       <c r="G6" s="1">
@@ -797,25 +832,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>18</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="4">
@@ -825,7 +860,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -851,478 +886,424 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17">
+        <v>70</v>
+      </c>
+      <c r="C12" s="18">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18">
+        <v>51</v>
+      </c>
+      <c r="E12" s="18">
+        <v>62</v>
+      </c>
+      <c r="F12" s="18">
+        <v>273</v>
+      </c>
+      <c r="G12" s="6">
+        <v>66</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUM(B12:G12)</f>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.12237762237762238</v>
+      </c>
+      <c r="C16" s="14">
+        <v>8.7412587412587409E-2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>8.9160839160839167E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.10839160839160839</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22">
-        <v>69</v>
-      </c>
-      <c r="C12" s="22">
-        <v>50</v>
-      </c>
-      <c r="D12" s="22">
-        <v>51</v>
-      </c>
-      <c r="E12" s="22">
-        <v>62</v>
-      </c>
-      <c r="F12" s="22">
-        <v>264</v>
-      </c>
-      <c r="G12" s="6">
-        <v>64</v>
-      </c>
-      <c r="H12" s="18">
-        <f>SUM(B12:G12)</f>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>70</v>
-      </c>
-      <c r="C13" s="7">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7">
-        <v>270</v>
-      </c>
-      <c r="G13" s="6">
-        <v>66</v>
-      </c>
-      <c r="H13" s="18">
-        <f>SUM(B13:G13)</f>
-        <v>568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20">
-        <v>70</v>
-      </c>
-      <c r="C14" s="21">
-        <v>50</v>
-      </c>
-      <c r="D14" s="21">
-        <v>51</v>
-      </c>
-      <c r="E14" s="21">
-        <v>62</v>
-      </c>
-      <c r="F14" s="21">
-        <v>273</v>
-      </c>
-      <c r="G14" s="8">
-        <v>66</v>
-      </c>
-      <c r="H14" s="19">
-        <f>SUM(B14:G14)</f>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0.20289855072463769</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0.17741935483870969</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0.1717557251908397</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0.18840579710144928</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0.20967741935483872</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.21755725190839695</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0.1875</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0.18840579710144928</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.43137254901960786</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.18702290076335878</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.112</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.192</v>
+      </c>
+      <c r="E20" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="14">
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="E21" s="14">
-        <v>4.8387096774193547E-2</v>
-      </c>
-      <c r="F21" s="14">
-        <v>8.0152671755725186E-2</v>
-      </c>
-      <c r="G21" s="15">
-        <v>9.375E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.10655737704918032</v>
+      </c>
+      <c r="C21" s="12">
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.13934426229508196</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.10655737704918032</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.46721311475409838</v>
+      </c>
+      <c r="G21" s="13">
+        <v>9.8360655737704916E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0.1092436974789916</v>
+      </c>
+      <c r="C22" s="12">
+        <v>9.2436974789915971E-2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.18487394957983194</v>
+      </c>
+      <c r="E22" s="12">
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.13445378151260504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="22">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="C23" s="12">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.18115942028985507</v>
+      </c>
+      <c r="E24" s="12">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0.40579710144927539</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="14">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0.49019607843137253</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0.19672131147540983</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0.2074074074074074</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="16">
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0.21568627450980393</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="F23" s="16">
-        <v>6.5934065934065936E-2</v>
-      </c>
-      <c r="G23" s="17">
-        <v>7.575757575757576E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="16">
-        <v>0.12237762237762238</v>
-      </c>
-      <c r="C27" s="16">
-        <v>8.7412587412587409E-2</v>
-      </c>
-      <c r="D27" s="16">
-        <v>8.9160839160839167E-2</v>
-      </c>
-      <c r="E27" s="16">
-        <v>0.10839160839160839</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.47727272727272729</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0.11538461538461539</v>
+      <c r="B29" s="25">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1.1897599999999999</v>
+      </c>
+      <c r="D29" s="26">
+        <v>2.1534117647058824</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0.81187096774193546</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.75428571428571423</v>
+      </c>
+      <c r="G29" s="27">
+        <v>1.2479999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>7</v>
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0.87072599531615913</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.93770491803278688</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1.5628415300546445</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.9830777366472766</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.97892271662763464</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.85245901639344257</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26">
-        <v>1.6579710144927562</v>
-      </c>
-      <c r="C31" s="14">
-        <v>2.9744000000000002</v>
-      </c>
-      <c r="D31" s="14">
-        <v>5.2779700115340251</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1.6368366285119669</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="G31" s="15">
-        <v>2.4375</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0.89267707082833125</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1.0574789915966387</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2.0734882188169386</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.62022228246137168</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0.86274509803921562</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1.1652661064425769</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="26">
-        <v>1.5395445134575569</v>
-      </c>
-      <c r="C32" s="14">
-        <v>2.2880000000000003</v>
-      </c>
-      <c r="D32" s="14">
-        <v>3.7385620915032676</v>
-      </c>
-      <c r="E32" s="14">
-        <v>1.9344432882414153</v>
-      </c>
-      <c r="F32" s="14">
-        <v>0.45238095238095238</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1.625</v>
+        <v>11</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0.96134453781512597</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.67294117647058826</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2.6389850057670126</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.54269449715370022</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.86274509803921562</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1.0196078431372548</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="26">
-        <v>1.5395445134575569</v>
-      </c>
-      <c r="C33" s="14">
-        <v>2.5167999999999999</v>
-      </c>
-      <c r="D33" s="14">
-        <v>4.8381391772395235</v>
-      </c>
-      <c r="E33" s="14">
-        <v>1.190426638917794</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G33" s="15">
-        <v>2.1666666666666665</v>
+        <v>20</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0.88819875776397506</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1.2434782608695651</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2.0318272236430803</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.80224403927068721</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0.85024154589371981</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.94202898550724634</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="26">
-        <v>0.71055900621118007</v>
+      <c r="A34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1.0895238095238096</v>
       </c>
       <c r="C34" s="14">
-        <v>0.68640000000000001</v>
+        <v>0.76266666666666671</v>
       </c>
       <c r="D34" s="14">
-        <v>2.6389850057670126</v>
+        <v>2.7416122004357297</v>
       </c>
       <c r="E34" s="14">
-        <v>0.44640998959417277</v>
+        <v>0.41003584229390683</v>
       </c>
       <c r="F34" s="14">
-        <v>0.1679389312977099</v>
+        <v>0.83809523809523812</v>
       </c>
       <c r="G34" s="15">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="26">
-        <v>1.7510204081632652</v>
-      </c>
-      <c r="C35" s="14">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="D35" s="14">
-        <v>5.4978854286812755</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1.8149127445795876</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0.43456790123456784</v>
-      </c>
-      <c r="G35" s="15">
-        <v>1.9696969696969695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="27">
-        <v>0.70040816326530608</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0.68640000000000001</v>
-      </c>
-      <c r="D36" s="16">
-        <v>2.4190695886197617</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0.2976066597294485</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0.13814756671899528</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.65656565656565657</v>
+        <v>0.96296296296296291</v>
       </c>
     </row>
   </sheetData>
